--- a/Stock/src/main/resources/layout/LayoutGiro.xlsx
+++ b/Stock/src/main/resources/layout/LayoutGiro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Automotriz</t>
-  </si>
-  <si>
-    <t>Petroquimica</t>
-  </si>
-  <si>
-    <t>Comercial</t>
-  </si>
-  <si>
-    <t>Mecánica</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="357">
   <si>
     <t>4</t>
   </si>
@@ -45,6 +33,1068 @@
   </si>
   <si>
     <t>Descripcion</t>
+  </si>
+  <si>
+    <t>abarrotes</t>
+  </si>
+  <si>
+    <t>abarrotes en general</t>
+  </si>
+  <si>
+    <t>academia comercial</t>
+  </si>
+  <si>
+    <t>academia de artes marciales</t>
+  </si>
+  <si>
+    <t>academia de baile</t>
+  </si>
+  <si>
+    <t>academia de idiomas</t>
+  </si>
+  <si>
+    <t>academia de música</t>
+  </si>
+  <si>
+    <t>acreditar actividad (cedula</t>
+  </si>
+  <si>
+    <t>acuarios</t>
+  </si>
+  <si>
+    <t>adicionales</t>
+  </si>
+  <si>
+    <t>administracion de bienes raices</t>
+  </si>
+  <si>
+    <t>afianzadora</t>
+  </si>
+  <si>
+    <t>agencia aduanal</t>
+  </si>
+  <si>
+    <t>agencia aerea y terrestre</t>
+  </si>
+  <si>
+    <t>agencia de finanzas</t>
+  </si>
+  <si>
+    <t>agencia de modelos</t>
+  </si>
+  <si>
+    <t>agencia de publicidad</t>
+  </si>
+  <si>
+    <t>agencia de seguros</t>
+  </si>
+  <si>
+    <t>agencia de tours</t>
+  </si>
+  <si>
+    <t>agencias de viaje</t>
+  </si>
+  <si>
+    <t>agencias distribuidorasinmobiliarias</t>
+  </si>
+  <si>
+    <t>aguas purificadas</t>
+  </si>
+  <si>
+    <t>aire acondicionado</t>
+  </si>
+  <si>
+    <t>almacen de ropa</t>
+  </si>
+  <si>
+    <t>alquiler de mobiliario y equipo</t>
+  </si>
+  <si>
+    <t>antiguedades</t>
+  </si>
+  <si>
+    <t>arte</t>
+  </si>
+  <si>
+    <t>artes graficas</t>
+  </si>
+  <si>
+    <t>artesanias</t>
+  </si>
+  <si>
+    <t>articulos deportivos</t>
+  </si>
+  <si>
+    <t>articulos fotograficos oficinas administrativas</t>
+  </si>
+  <si>
+    <t>articulos militares</t>
+  </si>
+  <si>
+    <t>articulos para baño</t>
+  </si>
+  <si>
+    <t>articulos para bebe</t>
+  </si>
+  <si>
+    <t>asesoria</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>autos y camiones</t>
+  </si>
+  <si>
+    <t>aviacion</t>
+  </si>
+  <si>
+    <t>bancos</t>
+  </si>
+  <si>
+    <t>baños publicos</t>
+  </si>
+  <si>
+    <t>barro y ceramica</t>
+  </si>
+  <si>
+    <t>basculas</t>
+  </si>
+  <si>
+    <t>bazares</t>
+  </si>
+  <si>
+    <t>belleza</t>
+  </si>
+  <si>
+    <t>bienes raices</t>
+  </si>
+  <si>
+    <t>bisuteria y novedades</t>
+  </si>
+  <si>
+    <t>blancos</t>
+  </si>
+  <si>
+    <t>bombas y calentadores p/alberca</t>
+  </si>
+  <si>
+    <t>boneterias</t>
+  </si>
+  <si>
+    <t>boutique</t>
+  </si>
+  <si>
+    <t>bronceadores</t>
+  </si>
+  <si>
+    <t>bufete juridico</t>
+  </si>
+  <si>
+    <t>cajas de seguridad</t>
+  </si>
+  <si>
+    <t>cajero automatico</t>
+  </si>
+  <si>
+    <t>camiones de mudanzas</t>
+  </si>
+  <si>
+    <t>camiones foraneos de carga</t>
+  </si>
+  <si>
+    <t>canchas deportivas</t>
+  </si>
+  <si>
+    <t>capacitacion</t>
+  </si>
+  <si>
+    <t>carga y descarga aerea</t>
+  </si>
+  <si>
+    <t>carnicerias</t>
+  </si>
+  <si>
+    <t>casas de cambio</t>
+  </si>
+  <si>
+    <t>casas de empeño</t>
+  </si>
+  <si>
+    <t>casetas telefonicas</t>
+  </si>
+  <si>
+    <t>catalogo de giros de bajo riesgo</t>
+  </si>
+  <si>
+    <t>centro de abastos</t>
+  </si>
+  <si>
+    <t>centro de nutricion</t>
+  </si>
+  <si>
+    <t>centros de abastos</t>
+  </si>
+  <si>
+    <t>centros de copiado</t>
+  </si>
+  <si>
+    <t>centros de telefonía convencional</t>
+  </si>
+  <si>
+    <t>centros recreativos</t>
+  </si>
+  <si>
+    <t>cigarros</t>
+  </si>
+  <si>
+    <t>club deportivo</t>
+  </si>
+  <si>
+    <t>colchones</t>
+  </si>
+  <si>
+    <t>comercial</t>
+  </si>
+  <si>
+    <t>comercial actividad salubridad</t>
+  </si>
+  <si>
+    <t>comercializadora</t>
+  </si>
+  <si>
+    <t>comisiones y representaciones</t>
+  </si>
+  <si>
+    <t>complementos alimenticios</t>
+  </si>
+  <si>
+    <t>compra venta bicicletas y accesorios</t>
+  </si>
+  <si>
+    <t>compra venta de motos</t>
+  </si>
+  <si>
+    <t>compra/venta de equipo medico instrumental</t>
+  </si>
+  <si>
+    <t>compra/venta de refrescos</t>
+  </si>
+  <si>
+    <t>compra/venta de sistemas de telefonia</t>
+  </si>
+  <si>
+    <t>computacion</t>
+  </si>
+  <si>
+    <t>congeladoras y empacadoras</t>
+  </si>
+  <si>
+    <t>conmutadores</t>
+  </si>
+  <si>
+    <t>constructoras</t>
+  </si>
+  <si>
+    <t>consultorio medicos</t>
+  </si>
+  <si>
+    <t>consultorio veterinario</t>
+  </si>
+  <si>
+    <t>control y calidad</t>
+  </si>
+  <si>
+    <t>copraventa de autos usados</t>
+  </si>
+  <si>
+    <t>crédito y cobranza</t>
+  </si>
+  <si>
+    <t>crematorios</t>
+  </si>
+  <si>
+    <t>cremerias,carnes frias y emb</t>
+  </si>
+  <si>
+    <t>cristaleria, loza, peltre y cubiertos</t>
+  </si>
+  <si>
+    <t>de autoservicio menor</t>
+  </si>
+  <si>
+    <t>decoración y diseño</t>
+  </si>
+  <si>
+    <t>despachos</t>
+  </si>
+  <si>
+    <t>discos y casettes</t>
+  </si>
+  <si>
+    <t>distribuidor de material</t>
+  </si>
+  <si>
+    <t>distribuidora de alimentos</t>
+  </si>
+  <si>
+    <t>dulceria</t>
+  </si>
+  <si>
+    <t>dulcerias compra/venta de artículos para fiesta</t>
+  </si>
+  <si>
+    <t>dulcerias mayoristas</t>
+  </si>
+  <si>
+    <t>electricidad</t>
+  </si>
+  <si>
+    <t>electrodomestico</t>
+  </si>
+  <si>
+    <t>empresas prestadoras de servicios</t>
+  </si>
+  <si>
+    <t>enmarcados de fotos</t>
+  </si>
+  <si>
+    <t>equipo d aerobicos y estantes</t>
+  </si>
+  <si>
+    <t>equipo de computo</t>
+  </si>
+  <si>
+    <t>equipo de sonido</t>
+  </si>
+  <si>
+    <t>equipo para construccion</t>
+  </si>
+  <si>
+    <t>equipo y accesorios para iluminacion</t>
+  </si>
+  <si>
+    <t>escritorio publico</t>
+  </si>
+  <si>
+    <t>escuela de manejo</t>
+  </si>
+  <si>
+    <t>esteticas</t>
+  </si>
+  <si>
+    <t>exhibicion</t>
+  </si>
+  <si>
+    <t>expendio de periodico y revistas</t>
+  </si>
+  <si>
+    <t>exportacion</t>
+  </si>
+  <si>
+    <t>farmacia veterinaria</t>
+  </si>
+  <si>
+    <t>farmacias y médicos</t>
+  </si>
+  <si>
+    <t>ferreterias, tlapalerias y refaccionarias</t>
+  </si>
+  <si>
+    <t>fletes</t>
+  </si>
+  <si>
+    <t>florerias</t>
+  </si>
+  <si>
+    <t>fruterias</t>
+  </si>
+  <si>
+    <t>fundacion</t>
+  </si>
+  <si>
+    <t>funerarias</t>
+  </si>
+  <si>
+    <t>gasolineras y gaseras</t>
+  </si>
+  <si>
+    <t>gimnasio</t>
+  </si>
+  <si>
+    <t>granos y semillas</t>
+  </si>
+  <si>
+    <t>gruas</t>
+  </si>
+  <si>
+    <t>guarderías</t>
+  </si>
+  <si>
+    <t>hospitales</t>
+  </si>
+  <si>
+    <t>imprentas</t>
+  </si>
+  <si>
+    <t>internet por maquina no ,.</t>
+  </si>
+  <si>
+    <t>joyeria</t>
+  </si>
+  <si>
+    <t>juegos mecanicos</t>
+  </si>
+  <si>
+    <t>jugueterias</t>
+  </si>
+  <si>
+    <t>lavado de autos</t>
+  </si>
+  <si>
+    <t>lavanderias</t>
+  </si>
+  <si>
+    <t>lencería y corseteria</t>
+  </si>
+  <si>
+    <t>librerias</t>
+  </si>
+  <si>
+    <t>linea blanca</t>
+  </si>
+  <si>
+    <t>mantenimiento</t>
+  </si>
+  <si>
+    <t>mascotas</t>
+  </si>
+  <si>
+    <t>materiales para construcción</t>
+  </si>
+  <si>
+    <t>medicamentos</t>
+  </si>
+  <si>
+    <t>mercerias</t>
+  </si>
+  <si>
+    <t>militares</t>
+  </si>
+  <si>
+    <t>mini super</t>
+  </si>
+  <si>
+    <t>mudanzas</t>
+  </si>
+  <si>
+    <t>mueblerias</t>
+  </si>
+  <si>
+    <t>naturistas</t>
+  </si>
+  <si>
+    <t>neverias</t>
+  </si>
+  <si>
+    <t>oficina de ingenieros y arquitectos</t>
+  </si>
+  <si>
+    <t>opticas</t>
+  </si>
+  <si>
+    <t>organización de eventos</t>
+  </si>
+  <si>
+    <t>panaderias</t>
+  </si>
+  <si>
+    <t>papeleria</t>
+  </si>
+  <si>
+    <t>parques acuaticos</t>
+  </si>
+  <si>
+    <t>parques ecologicos</t>
+  </si>
+  <si>
+    <t>peluquerias</t>
+  </si>
+  <si>
+    <t>pescaderias</t>
+  </si>
+  <si>
+    <t>pintura artistica</t>
+  </si>
+  <si>
+    <t>pisos y azulejos</t>
+  </si>
+  <si>
+    <t>policiacos</t>
+  </si>
+  <si>
+    <t>productos esotericos y aromaterapia</t>
+  </si>
+  <si>
+    <t>profesionistas</t>
+  </si>
+  <si>
+    <t>proveedor de internet</t>
+  </si>
+  <si>
+    <t>quiropracticos</t>
+  </si>
+  <si>
+    <t>redes electricas</t>
+  </si>
+  <si>
+    <t>refacciones</t>
+  </si>
+  <si>
+    <t>refacciones de electronica</t>
+  </si>
+  <si>
+    <t>refacciones para avion</t>
+  </si>
+  <si>
+    <t>regalos</t>
+  </si>
+  <si>
+    <t>rehabilitacion fisica</t>
+  </si>
+  <si>
+    <t>renta de disfraces</t>
+  </si>
+  <si>
+    <t>renta de maquinaria pesada</t>
+  </si>
+  <si>
+    <t>renta de videos</t>
+  </si>
+  <si>
+    <t>renta de videos macro</t>
+  </si>
+  <si>
+    <t>rentadora de bicicletas</t>
+  </si>
+  <si>
+    <t>rentadora de motos</t>
+  </si>
+  <si>
+    <t>rentadora de patines</t>
+  </si>
+  <si>
+    <t>rentadoras de autos</t>
+  </si>
+  <si>
+    <t>ropa en general</t>
+  </si>
+  <si>
+    <t>rotulistas p/computadora</t>
+  </si>
+  <si>
+    <t>sala de entretenimiento infantil</t>
+  </si>
+  <si>
+    <t>salas de belleza</t>
+  </si>
+  <si>
+    <t>salas de fiesta infantiles</t>
+  </si>
+  <si>
+    <t>salas de masaje</t>
+  </si>
+  <si>
+    <t>salón de baile y fiestas</t>
+  </si>
+  <si>
+    <t>sarticulos militares y policiacos</t>
+  </si>
+  <si>
+    <t>sastrerias</t>
+  </si>
+  <si>
+    <t>seguridad privada</t>
+  </si>
+  <si>
+    <t>servicios de vigilancia</t>
+  </si>
+  <si>
+    <t>servicos voluntarios</t>
+  </si>
+  <si>
+    <t>tabaquerias</t>
+  </si>
+  <si>
+    <t>taller de bicicleta</t>
+  </si>
+  <si>
+    <t>taller de cerrajeria</t>
+  </si>
+  <si>
+    <t>taller de mantenimiento y conserv.</t>
+  </si>
+  <si>
+    <t>taller de maquinas de oficina</t>
+  </si>
+  <si>
+    <t>taller de plomeria</t>
+  </si>
+  <si>
+    <t>taller de relojeria</t>
+  </si>
+  <si>
+    <t>taller de reparación de alhajas</t>
+  </si>
+  <si>
+    <t>taller de tapiceria</t>
+  </si>
+  <si>
+    <t>tarjetas telefonicas</t>
+  </si>
+  <si>
+    <t>telas y mercerias</t>
+  </si>
+  <si>
+    <t>telefonia</t>
+  </si>
+  <si>
+    <t>telefonos celular</t>
+  </si>
+  <si>
+    <t>venta automotriz</t>
+  </si>
+  <si>
+    <t>venta d boletos y paqueteria</t>
+  </si>
+  <si>
+    <t>venta de articulos de piel</t>
+  </si>
+  <si>
+    <t>venta de articulos deportivos</t>
+  </si>
+  <si>
+    <t>venta de articulos fotograficos</t>
+  </si>
+  <si>
+    <t>venta de articulos p/joyeros</t>
+  </si>
+  <si>
+    <t>venta de aspiradoras</t>
+  </si>
+  <si>
+    <t>venta de bombas</t>
+  </si>
+  <si>
+    <t>venta de copiadoras</t>
+  </si>
+  <si>
+    <t>venta de elevadores</t>
+  </si>
+  <si>
+    <t>venta de franquicias</t>
+  </si>
+  <si>
+    <t>venta de huevo menudeo</t>
+  </si>
+  <si>
+    <t>venta de lavadoras industriales</t>
+  </si>
+  <si>
+    <t>venta de llantas</t>
+  </si>
+  <si>
+    <t>venta de maquinaria ligera</t>
+  </si>
+  <si>
+    <t>venta de maquinaria pesada</t>
+  </si>
+  <si>
+    <t>venta de mater. de construccion</t>
+  </si>
+  <si>
+    <t>venta de muebles y equipo para oficina</t>
+  </si>
+  <si>
+    <t>venta de peces y accesorios p/mascotas</t>
+  </si>
+  <si>
+    <t>venta de playeras y art. de playa</t>
+  </si>
+  <si>
+    <t>venta de pollos</t>
+  </si>
+  <si>
+    <t>venta de pollos en estado natural</t>
+  </si>
+  <si>
+    <t>venta de productos de belleza</t>
+  </si>
+  <si>
+    <t>venta de productos naturales</t>
+  </si>
+  <si>
+    <t>venta de relojes</t>
+  </si>
+  <si>
+    <t>venta de tarjetas telefonicas</t>
+  </si>
+  <si>
+    <t>venta de tiempo compartido art.</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
   </si>
 </sst>
 </file>
@@ -94,10 +1144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,57 +1430,2654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>32</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>33</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>37</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>40</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>41</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>42</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>44</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>47</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>48</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>49</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>50</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>51</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>52</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>53</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>54</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>55</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>56</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>57</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>58</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>59</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>60</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>61</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>62</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>63</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>64</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>65</v>
+      </c>
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>66</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B131" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>67</v>
+      </c>
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B133" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>68</v>
+      </c>
+      <c r="B134" t="s">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B135" t="s">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>69</v>
+      </c>
+      <c r="B136" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B137" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>70</v>
+      </c>
+      <c r="B138" t="s">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B139" t="s">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>71</v>
+      </c>
+      <c r="B140" t="s">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>72</v>
+      </c>
+      <c r="B142" t="s">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>73</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B145" t="s">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>74</v>
+      </c>
+      <c r="B146" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B147" t="s">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>75</v>
+      </c>
+      <c r="B148" t="s">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B149" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>76</v>
+      </c>
+      <c r="B150" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>77</v>
+      </c>
+      <c r="B152" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B153" t="s">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>78</v>
+      </c>
+      <c r="B154" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155" t="s">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>79</v>
+      </c>
+      <c r="B156" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B157" t="s">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>80</v>
+      </c>
+      <c r="B158" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" t="s">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>81</v>
+      </c>
+      <c r="B160" t="s">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>82</v>
+      </c>
+      <c r="B162" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" t="s">
+        <v>161</v>
+      </c>
+      <c r="C163" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>83</v>
+      </c>
+      <c r="B164" t="s">
+        <v>162</v>
+      </c>
+      <c r="C164" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B165" t="s">
+        <v>163</v>
+      </c>
+      <c r="C165" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>84</v>
+      </c>
+      <c r="B166" t="s">
+        <v>164</v>
+      </c>
+      <c r="C166" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B167" t="s">
+        <v>165</v>
+      </c>
+      <c r="C167" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>85</v>
+      </c>
+      <c r="B168" t="s">
+        <v>166</v>
+      </c>
+      <c r="C168" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B169" t="s">
+        <v>167</v>
+      </c>
+      <c r="C169" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>86</v>
+      </c>
+      <c r="B170" t="s">
+        <v>168</v>
+      </c>
+      <c r="C170" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B171" t="s">
+        <v>169</v>
+      </c>
+      <c r="C171" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>87</v>
+      </c>
+      <c r="B172" t="s">
+        <v>170</v>
+      </c>
+      <c r="C172" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B173" t="s">
+        <v>171</v>
+      </c>
+      <c r="C173" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>88</v>
+      </c>
+      <c r="B174" t="s">
+        <v>172</v>
+      </c>
+      <c r="C174" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B175" t="s">
+        <v>173</v>
+      </c>
+      <c r="C175" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>89</v>
+      </c>
+      <c r="B176" t="s">
+        <v>174</v>
+      </c>
+      <c r="C176" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B177" t="s">
+        <v>175</v>
+      </c>
+      <c r="C177" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>90</v>
+      </c>
+      <c r="B178" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B179" t="s">
+        <v>177</v>
+      </c>
+      <c r="C179" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>91</v>
+      </c>
+      <c r="B180" t="s">
+        <v>178</v>
+      </c>
+      <c r="C180" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B181" t="s">
+        <v>179</v>
+      </c>
+      <c r="C181" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>92</v>
+      </c>
+      <c r="B182" t="s">
+        <v>180</v>
+      </c>
+      <c r="C182" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B183" t="s">
+        <v>181</v>
+      </c>
+      <c r="C183" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>93</v>
+      </c>
+      <c r="B184" t="s">
+        <v>182</v>
+      </c>
+      <c r="C184" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B185" t="s">
+        <v>183</v>
+      </c>
+      <c r="C185" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>94</v>
+      </c>
+      <c r="B186" t="s">
+        <v>184</v>
+      </c>
+      <c r="C186" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B187" t="s">
+        <v>185</v>
+      </c>
+      <c r="C187" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>95</v>
+      </c>
+      <c r="B188" t="s">
+        <v>186</v>
+      </c>
+      <c r="C188" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B189" t="s">
+        <v>187</v>
+      </c>
+      <c r="C189" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>96</v>
+      </c>
+      <c r="B190" t="s">
+        <v>188</v>
+      </c>
+      <c r="C190" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B191" t="s">
+        <v>189</v>
+      </c>
+      <c r="C191" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>97</v>
+      </c>
+      <c r="B192" t="s">
+        <v>190</v>
+      </c>
+      <c r="C192" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B193" t="s">
+        <v>191</v>
+      </c>
+      <c r="C193" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>98</v>
+      </c>
+      <c r="B194" t="s">
+        <v>192</v>
+      </c>
+      <c r="C194" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B195" t="s">
+        <v>193</v>
+      </c>
+      <c r="C195" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>99</v>
+      </c>
+      <c r="B196" t="s">
+        <v>194</v>
+      </c>
+      <c r="C196" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B197" t="s">
+        <v>195</v>
+      </c>
+      <c r="C197" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>100</v>
+      </c>
+      <c r="B198" t="s">
+        <v>196</v>
+      </c>
+      <c r="C198" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B199" t="s">
+        <v>197</v>
+      </c>
+      <c r="C199" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>101</v>
+      </c>
+      <c r="B200" t="s">
+        <v>198</v>
+      </c>
+      <c r="C200" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B201" t="s">
+        <v>199</v>
+      </c>
+      <c r="C201" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>102</v>
+      </c>
+      <c r="B202" t="s">
+        <v>200</v>
+      </c>
+      <c r="C202" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B203" t="s">
+        <v>201</v>
+      </c>
+      <c r="C203" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>103</v>
+      </c>
+      <c r="B204" t="s">
+        <v>202</v>
+      </c>
+      <c r="C204" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B205" t="s">
+        <v>203</v>
+      </c>
+      <c r="C205" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>104</v>
+      </c>
+      <c r="B206" t="s">
+        <v>204</v>
+      </c>
+      <c r="C206" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B207" t="s">
+        <v>205</v>
+      </c>
+      <c r="C207" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>105</v>
+      </c>
+      <c r="B208" t="s">
+        <v>206</v>
+      </c>
+      <c r="C208" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B209" t="s">
+        <v>207</v>
+      </c>
+      <c r="C209" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>106</v>
+      </c>
+      <c r="B210" t="s">
+        <v>208</v>
+      </c>
+      <c r="C210" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B211" t="s">
+        <v>209</v>
+      </c>
+      <c r="C211" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>107</v>
+      </c>
+      <c r="B212" t="s">
+        <v>210</v>
+      </c>
+      <c r="C212" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B213" t="s">
+        <v>211</v>
+      </c>
+      <c r="C213" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>108</v>
+      </c>
+      <c r="B214" t="s">
+        <v>212</v>
+      </c>
+      <c r="C214" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B215" t="s">
+        <v>213</v>
+      </c>
+      <c r="C215" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>109</v>
+      </c>
+      <c r="B216" t="s">
+        <v>214</v>
+      </c>
+      <c r="C216" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B217" t="s">
+        <v>215</v>
+      </c>
+      <c r="C217" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>110</v>
+      </c>
+      <c r="B218" t="s">
+        <v>216</v>
+      </c>
+      <c r="C218" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B219" t="s">
+        <v>217</v>
+      </c>
+      <c r="C219" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>111</v>
+      </c>
+      <c r="B220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C220" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B221" t="s">
+        <v>219</v>
+      </c>
+      <c r="C221" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>112</v>
+      </c>
+      <c r="B222" t="s">
+        <v>220</v>
+      </c>
+      <c r="C222" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B223" t="s">
+        <v>221</v>
+      </c>
+      <c r="C223" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>113</v>
+      </c>
+      <c r="B224" t="s">
+        <v>222</v>
+      </c>
+      <c r="C224" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B225" t="s">
+        <v>223</v>
+      </c>
+      <c r="C225" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>114</v>
+      </c>
+      <c r="B226" t="s">
+        <v>224</v>
+      </c>
+      <c r="C226" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B227" t="s">
+        <v>225</v>
+      </c>
+      <c r="C227" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>115</v>
+      </c>
+      <c r="B228" t="s">
+        <v>226</v>
+      </c>
+      <c r="C228" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B229" t="s">
+        <v>227</v>
+      </c>
+      <c r="C229" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>116</v>
+      </c>
+      <c r="B230" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B231" t="s">
+        <v>229</v>
+      </c>
+      <c r="C231" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>117</v>
+      </c>
+      <c r="B232" t="s">
+        <v>230</v>
+      </c>
+      <c r="C232" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B233" t="s">
+        <v>231</v>
+      </c>
+      <c r="C233" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>118</v>
+      </c>
+      <c r="B234" t="s">
+        <v>232</v>
+      </c>
+      <c r="C234" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B235" t="s">
+        <v>233</v>
+      </c>
+      <c r="C235" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>119</v>
+      </c>
+      <c r="B236" t="s">
+        <v>234</v>
+      </c>
+      <c r="C236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B237" t="s">
+        <v>235</v>
+      </c>
+      <c r="C237" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>120</v>
+      </c>
+      <c r="B238" t="s">
+        <v>236</v>
+      </c>
+      <c r="C238" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B239" t="s">
+        <v>237</v>
+      </c>
+      <c r="C239" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>121</v>
+      </c>
+      <c r="B240" t="s">
+        <v>238</v>
+      </c>
+      <c r="C240" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
